--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\wamp64\www\test\api-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E434A558-1262-4243-8739-A2F95AF1FDBD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9EF0454E-CAB1-4AAB-A2DD-A67AF0DD93F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="9360" xr2:uid="{84318766-24F8-463B-8532-83F89633B8E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>月份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,6 +159,26 @@
   </si>
   <si>
     <t>500ml样品罐（202）</t>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -680,13 +700,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0438B3-240E-4D04-8BC9-D8894D3A67F5}">
-  <dimension ref="A1:AI43"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -787,229 +810,235 @@
       <c r="B2">
         <v>41579401</v>
       </c>
-      <c r="C2">
-        <v>489751</v>
-      </c>
-      <c r="D2">
-        <v>3003281</v>
-      </c>
-      <c r="E2">
-        <v>1005386</v>
-      </c>
-      <c r="F2">
-        <v>3496332</v>
-      </c>
-      <c r="G2">
-        <v>197223</v>
-      </c>
-      <c r="H2">
-        <v>756416</v>
-      </c>
-      <c r="I2">
-        <v>992339</v>
-      </c>
-      <c r="J2">
-        <v>297506</v>
-      </c>
-      <c r="K2">
-        <v>101140</v>
-      </c>
-      <c r="L2">
-        <v>799006</v>
-      </c>
-      <c r="M2">
-        <v>599449</v>
-      </c>
-      <c r="N2">
-        <v>598671</v>
-      </c>
-      <c r="O2">
-        <v>3917230</v>
-      </c>
-      <c r="P2">
-        <v>2823362</v>
-      </c>
-      <c r="Q2">
-        <v>520093</v>
-      </c>
-      <c r="R2">
-        <v>2578136</v>
-      </c>
-      <c r="S2">
-        <v>786169</v>
-      </c>
-      <c r="T2">
-        <v>1476255</v>
-      </c>
-      <c r="U2">
-        <v>416230</v>
-      </c>
-      <c r="V2">
-        <v>1740775</v>
-      </c>
-      <c r="W2">
-        <v>1031628</v>
-      </c>
-      <c r="X2">
-        <v>2178400</v>
-      </c>
-      <c r="Y2">
-        <v>1799180</v>
-      </c>
-      <c r="Z2">
-        <v>693192</v>
-      </c>
-      <c r="AA2">
-        <v>1003431</v>
-      </c>
-      <c r="AB2">
-        <v>1478400</v>
-      </c>
-      <c r="AC2">
-        <v>6799720</v>
-      </c>
-      <c r="AD2">
-        <v>700</v>
-      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>82618893</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>75049282</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>72037512</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>79712162</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>75401740</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>75472663</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>81206313</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>87360971</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>35186107</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>88281525</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="8:35" x14ac:dyDescent="0.2">
-      <c r="H43">
+      <c r="B13">
+        <v>80786320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="8:35" x14ac:dyDescent="0.2">
+      <c r="H42">
         <v>489751</v>
       </c>
-      <c r="I43">
+      <c r="I42">
         <v>3003281</v>
       </c>
-      <c r="J43">
+      <c r="J42">
         <v>1005386</v>
       </c>
-      <c r="K43">
+      <c r="K42">
         <v>3496332</v>
       </c>
-      <c r="L43">
+      <c r="L42">
         <v>197223</v>
       </c>
-      <c r="M43">
+      <c r="M42">
         <v>756416</v>
       </c>
-      <c r="N43">
+      <c r="N42">
         <v>992339</v>
       </c>
-      <c r="O43">
+      <c r="O42">
         <v>297506</v>
       </c>
-      <c r="P43">
+      <c r="P42">
         <v>101140</v>
       </c>
-      <c r="Q43">
+      <c r="Q42">
         <v>799006</v>
       </c>
-      <c r="R43">
+      <c r="R42">
         <v>599449</v>
       </c>
-      <c r="S43">
+      <c r="S42">
         <v>598671</v>
       </c>
-      <c r="T43">
+      <c r="T42">
         <v>3917230</v>
       </c>
-      <c r="U43">
+      <c r="U42">
         <v>2823362</v>
       </c>
-      <c r="V43">
+      <c r="V42">
         <v>520093</v>
       </c>
-      <c r="W43">
+      <c r="W42">
         <v>2578136</v>
       </c>
-      <c r="X43">
+      <c r="X42">
         <v>786169</v>
       </c>
-      <c r="Y43">
+      <c r="Y42">
         <v>1476255</v>
       </c>
-      <c r="Z43">
+      <c r="Z42">
         <v>416230</v>
       </c>
-      <c r="AA43">
+      <c r="AA42">
         <v>1740775</v>
       </c>
-      <c r="AB43">
+      <c r="AB42">
         <v>1031628</v>
       </c>
-      <c r="AC43">
+      <c r="AC42">
         <v>2178400</v>
       </c>
-      <c r="AD43">
+      <c r="AD42">
         <v>1799180</v>
       </c>
-      <c r="AE43">
+      <c r="AE42">
         <v>693192</v>
       </c>
-      <c r="AF43">
+      <c r="AF42">
         <v>1003431</v>
       </c>
-      <c r="AG43">
+      <c r="AG42">
         <v>1478400</v>
       </c>
-      <c r="AH43">
+      <c r="AH42">
         <v>6799720</v>
       </c>
-      <c r="AI43">
+      <c r="AI42">
         <v>700</v>
       </c>
     </row>
